--- a/data/strings/zoneData.xlsx
+++ b/data/strings/zoneData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>ZoneName</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Sketching</t>
   </si>
   <si>
-    <t>We start at the beginning, young one. When you begin with Medialogy, you will have many ideas. But all ideas require a sketch._ At AAU, you will be taught the best methods for sketching your ideas, which will show you how brilliant your ideas truly are!__ Of course, sketching an idea is not enough. Continue!</t>
-  </si>
-  <si>
     <t>Programming</t>
   </si>
   <si>
@@ -77,12 +74,6 @@
     <t xml:space="preserve"> Young one, sketching will only get you so far. If you want to make the very best things, you must learn how to code.__ Luckily AAU requires no prior experience, and over three years, you will be lifted from a novice to a master. It’s hard work, but it’s also fun!</t>
   </si>
   <si>
-    <t>Shapes, sprites and polygons. The world of computer graphics will always be closely related to programming. To make your ideas work in real life, you will work with the tools necessary to make 2D and 3D graphics._ At AAU, you will begin on computer graphics along with the programming, starting on day one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To make your ideas work in real life, you will work with the tools necessary to make 2D and 3D graphics.__ At AAU, you will begin on computer graphics along with the programming, starting on day one.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The digital world is a wonderful world, but at some point you will need to work with real life as well._ Physical design helps you taking your project from a sketch to the real world._ AAU is a land of wonders and technology: 3D printers, electrical labs, workshops with wood and metal. All is possible!</t>
   </si>
   <si>
@@ -110,7 +101,13 @@
     <t xml:space="preserve"> You will spend time studying how and why some things work great, and why other work terribly. If you combine that with programming, you can create computer art. If you combine it with management, you can become a well-paid consultant. If you combine it with research, you could design the next big IT-system.</t>
   </si>
   <si>
-    <t>Greetings young one, and welcome to Medialogy. To begin your quest, place your finger on top of your avatar and drag yourself through the path of Medialogy./n/n Throughout your journey you will learn what Medialogy is all about, which will help you claim the ultimate reward. A job!__Good luck, and safe travels!</t>
+    <t xml:space="preserve"> We start at the beginning, young one. When you begin with Medialogy, you will have many ideas. But all ideas require a sketch._ At AAU, you will be taught the best methods for sketching your ideas, which will show you how brilliant your ideas truly are!__ Of course, sketching an idea is not enough. Continue!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shapes, sprites and polygons. The world of computer graphics will always be closely related to programming. To make your ideas work in real life, you will work with the tools necessary to make 2D and 3D graphics._ At AAU, you will begin on computer graphics along with the programming, starting on day one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greetings young one, and welcome to Medialogy. To begin your quest, place your finger on top of your avatar and drag yourself through the path of Medialogy.__ Throughout your journey you will learn what Medialogy is all about, which will help you claim the ultimate reward: A job!__Good luck, and safe travels!</t>
   </si>
 </sst>
 </file>
@@ -465,7 +462,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -495,100 +492,100 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/strings/zoneData.xlsx
+++ b/data/strings/zoneData.xlsx
@@ -107,7 +107,7 @@
     <t xml:space="preserve"> Shapes, sprites and polygons. The world of computer graphics will always be closely related to programming. To make your ideas work in real life, you will work with the tools necessary to make 2D and 3D graphics._ At AAU, you will begin on computer graphics along with the programming, starting on day one.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Greetings young one, and welcome to Medialogy. To begin your quest, place your finger on top of your avatar and drag yourself through the path of Medialogy.__ Throughout your journey you will learn what Medialogy is all about, which will help you claim the ultimate reward: A job!__Good luck, and safe travels!</t>
+    <t xml:space="preserve"> Greetings young one, and welcome to Medialogy. To begin your quest, place your finger on top of your avatar and drag yourself through the path of Medialogy._ Throughout your journey you will learn what Medialogy is all about, which will help you claim the ultimate reward: A job!__Good luck, and safe travels!</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/strings/zoneData.xlsx
+++ b/data/strings/zoneData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus Jagd\Google Drive\Medialogy\GitHub\P0mapgame\data\strings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus Jagd\Google Drive\Medialogy\1st Semester\Introduction to Programming\Sketchbook\mapgame_experimental3\data\strings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>ZoneName</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Medialogy - A Journey</t>
   </si>
   <si>
-    <t>Text String</t>
-  </si>
-  <si>
     <t>Sketching</t>
   </si>
   <si>
@@ -71,43 +68,85 @@
     <t>Art &amp; Design</t>
   </si>
   <si>
-    <t xml:space="preserve"> Young one, sketching will only get you so far. If you want to make the very best things, you must learn how to code.__ Luckily AAU requires no prior experience, and over three years, you will be lifted from a novice to a master. It’s hard work, but it’s also fun!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The digital world is a wonderful world, but at some point you will need to work with real life as well._ Physical design helps you taking your project from a sketch to the real world._ AAU is a land of wonders and technology: 3D printers, electrical labs, workshops with wood and metal. All is possible!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Medialogy is nothing without the user, young one. And the user is a strange person. If you haven’t made your idea easy to use, they will just go play Farmville._ With interaction design, you will learn how users think and how to help them enjoy your idea.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Once you understand the digital and the physical world, it’s time to make the real magic: Animation.You dont need to be Disney or Pixar to make things move, and already on first semester you will be animating.__AAU will teach you about 2D and 3D animation, and by the end of your journey, you will know how to animate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pacman said wakka-wakka. Gordon Freeman said nothing. Sound design is about learning what audio works best for your particular project._You are almost done with Medialogy. Keep going!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> You have completed the education of Medialogy! _Now take a moment to browse the wide variety of jobs that are now open to you!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Your work with animation and graphics will open some possibilities within the world of moving images. Areas like motion capture and special effects exist with a bit more studying and practice.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Medialogy gives you a lot of the skills needed to make a game: Programming, design, project management, quality assurance and more. Plenty of Medialogy bachelors have made indie games before, and some have found their way into major companies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Medialogy is a field in constant change. What's true today, might be wrong tomorrow. That's why a lot of Ph.D.’s and professors do research in the field, and if you want career in academia, it's possible.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You will spend time studying how and why some things work great, and why other work terribly. If you combine that with programming, you can create computer art. If you combine it with management, you can become a well-paid consultant. If you combine it with research, you could design the next big IT-system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> We start at the beginning, young one. When you begin with Medialogy, you will have many ideas. But all ideas require a sketch._ At AAU, you will be taught the best methods for sketching your ideas, which will show you how brilliant your ideas truly are!__ Of course, sketching an idea is not enough. Continue!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shapes, sprites and polygons. The world of computer graphics will always be closely related to programming. To make your ideas work in real life, you will work with the tools necessary to make 2D and 3D graphics._ At AAU, you will begin on computer graphics along with the programming, starting on day one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Greetings young one, and welcome to Medialogy. To begin your quest, place your finger on top of your avatar and drag yourself through the path of Medialogy._ Throughout your journey you will learn what Medialogy is all about, which will help you claim the ultimate reward: A job!__Good luck, and safe travels!</t>
+    <t xml:space="preserve"> We start at the beginning, young one. When you begin with Medialogy, you will have many ideas. But all ideas require a sketch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At AAU, you will be taught the best methods for sketching your ideas, which will show you how brilliant your ideas truly are!__ Of course, sketching an idea is not enough. Continue!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Young one, sketching will only get you so far. If you want to make the very best things, you must learn how to code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luckily AAU requires no prior experience, and over three years, you will be lifted from a novice to a master. It’s hard work, but it’s also fun!</t>
+  </si>
+  <si>
+    <t>Text String 1</t>
+  </si>
+  <si>
+    <t>Text String 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shapes, sprites and polygons. The world of computer graphics will always be closely related to programming. </t>
+  </si>
+  <si>
+    <t>To make your ideas work in real life, you will work with the tools necessary to make 2D and 3D graphics._ At AAU, you will begin on computer graphics along with the programming, starting on day one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The digital world is a wonderful world, but at some point you will need to work with real life as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Physical design helps you taking your project from a sketch to the real world._ AAU is a land of wonders and technology: 3D printers, electrical labs, workshops with wood and metal. All is possible!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medialogy is nothing without the user, young one. And the user is a strange person. If you haven’t made your idea easy to use, they will just go play Farmville.</t>
+  </si>
+  <si>
+    <t>With interaction design, you will learn how users think and how to help them enjoy your idea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Once you understand the digital and the physical world, it’s time to make the real magic: Animation.</t>
+  </si>
+  <si>
+    <t>You dont need to be Disney or Pixar to make things move, and already on first semester you will be animating.__AAU will teach you about 2D and 3D animation, and by the end of your journey, you will know how to animate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pacman said wakka-wakka._ Gordon Freeman said nothing._ Sound design is about learning what audio works best for your particular project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You are almost done with Medialogy. Keep going!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your work with animation and graphics will open some possibilities within the world of moving images. </t>
+  </si>
+  <si>
+    <t>Areas like motion capture and special effects exist with a bit more studying and practice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medialogy gives you a lot of the skills needed to make a game: Programming, design, project management, quality assurance and more. </t>
+  </si>
+  <si>
+    <t>Plenty of Medialogy bachelors have made indie games before, and some have found their way into major companies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medialogy is a field in constant change. What's true today, might be wrong tomorrow. </t>
+  </si>
+  <si>
+    <t>That's why a lot of Ph.D.’s and professors do research in the field, and if you want career in academia, it's possible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You will spend time studying how and why some things work great, and why other work terribly. If you combine that with programming, you can create computer art. </t>
+  </si>
+  <si>
+    <t>If you combine it with management, you can become a well-paid consultant. If you combine it with research, you could design the next big IT-system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greetings young one, and welcome to Medialogy. To begin your quest, place your finger on top of your avatar and drag yourself through the path of Medialogy. Filler, filler, filler, filler, filler, filler, filler, filler, filler, filler.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Throughout your journey you will learn what Medialogy is all about, which will help you claim the ultimate reward: A job!_Good luck, and safe travels!</t>
   </si>
 </sst>
 </file>
@@ -459,136 +498,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="165.5703125" customWidth="1"/>
+    <col min="2" max="2" width="205.7109375" customWidth="1"/>
+    <col min="3" max="3" width="122" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
       <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/strings/zoneData.xlsx
+++ b/data/strings/zoneData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus Jagd\Google Drive\Medialogy\1st Semester\Introduction to Programming\Sketchbook\mapgame_experimental3\data\strings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LWT\Desktop\P0mapgame\data\strings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>ZoneName</t>
   </si>
@@ -147,12 +147,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Throughout your journey you will learn what Medialogy is all about, which will help you claim the ultimate reward: A job!_Good luck, and safe travels!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,18 +503,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="205.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.7265625" customWidth="1"/>
+    <col min="2" max="2" width="205.7265625" customWidth="1"/>
     <col min="3" max="3" width="122" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -533,7 +536,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -544,7 +547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -555,7 +558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -566,7 +569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -577,7 +580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -588,7 +591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -599,7 +602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -610,15 +613,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -629,7 +635,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -640,7 +646,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -651,7 +657,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>

--- a/data/strings/zoneData.xlsx
+++ b/data/strings/zoneData.xlsx
@@ -74,51 +74,24 @@
     <t xml:space="preserve"> We start at the beginning, young one. When you begin with Medialogy, you will have many ideas. But all ideas require a sketch.</t>
   </si>
   <si>
-    <t xml:space="preserve"> At AAU, you will be taught the best methods for sketching your ideas, which will show you how brilliant your ideas truly are!__ Of course, sketching an idea is not enough. Continue!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Young one, sketching will only get you so far. If you want to make the very best things, you must learn how to code.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Luckily AAU requires no prior experience, and over three years, you will be lifted from a novice to a master. It’s hard work, but it’s also fun!</t>
-  </si>
-  <si>
     <t>Text String 1</t>
   </si>
   <si>
     <t>Text String 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Shapes, sprites and polygons. The world of computer graphics will always be closely related to programming. </t>
-  </si>
-  <si>
-    <t>To make your ideas work in real life, you will work with the tools necessary to make 2D and 3D graphics._ At AAU, you will begin on computer graphics along with the programming, starting on day one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The digital world is a wonderful world, but at some point you will need to work with real life as well.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Physical design helps you taking your project from a sketch to the real world._ AAU is a land of wonders and technology: 3D printers, electrical labs, workshops with wood and metal. All is possible!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Medialogy is nothing without the user, young one. And the user is a strange person. If you haven’t made your idea easy to use, they will just go play Farmville.</t>
   </si>
   <si>
     <t>With interaction design, you will learn how users think and how to help them enjoy your idea.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Once you understand the digital and the physical world, it’s time to make the real magic: Animation.</t>
-  </si>
-  <si>
-    <t>You dont need to be Disney or Pixar to make things move, and already on first semester you will be animating.__AAU will teach you about 2D and 3D animation, and by the end of your journey, you will know how to animate.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pacman said wakka-wakka._ Gordon Freeman said nothing._ Sound design is about learning what audio works best for your particular project.</t>
   </si>
   <si>
-    <t xml:space="preserve"> You are almost done with Medialogy. Keep going!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Your work with animation and graphics will open some possibilities within the world of moving images. </t>
   </si>
   <si>
@@ -143,13 +116,40 @@
     <t>If you combine it with management, you can become a well-paid consultant. If you combine it with research, you could design the next big IT-system.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Greetings young one, and welcome to Medialogy. To begin your quest, place your finger on top of your avatar and drag yourself through the path of Medialogy. Filler, filler, filler, filler, filler, filler, filler, filler, filler, filler.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Throughout your journey you will learn what Medialogy is all about, which will help you claim the ultimate reward: A job!_Good luck, and safe travels!</t>
-  </si>
-  <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>You are almost done with Medialogy. Keep going!</t>
+  </si>
+  <si>
+    <t>Luckily AAU requires no prior experience, and over three years, you will be lifted from a novice to a master. It’s hard work, but it’s also fun!</t>
+  </si>
+  <si>
+    <t>Throughout your journey you will learn what Medialogy is all about, which will help you claim the ultimate reward: A job!_Good luck, and safe travels!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shapes, sprites and polygons. The world of computer graphics will always be closely related to programming. To make your ideas work in real life, </t>
+  </si>
+  <si>
+    <t>you will work with the tools necessary to make 2D and 3D graphics._At AAU, you will begin on computer graphics along with the programming, starting on day one.</t>
+  </si>
+  <si>
+    <t>AAU is a land of wonders and technology: 3D printers, electrical labs, workshops with wood and metal. All is possible!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The digital world is a wonderful world, but at some point you will need to work with real life as well. Physical design helps you taking your project from a sketch to the real world.</t>
+  </si>
+  <si>
+    <t>AAU will teach you about 2D and 3D animation, and by the end of your journey, you will know how to animate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greetings young one, and welcome to Medialogy. To begin your quest, place your finger on top of your avatar and drag yourself through the path of Medialogy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Once you understand the digital and the physical world, it’s time to make the real magic: Animation._You dont need to be Disney or Pixar to make things move, and already on first semester you will be animating.</t>
+  </si>
+  <si>
+    <t>At AAU, you will be taught the best methods for sketching your ideas, which will show you how brilliant your ideas truly are!</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,10 +519,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -533,7 +533,7 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -544,7 +544,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -552,10 +552,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -563,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -574,10 +574,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -585,10 +585,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -596,10 +596,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -607,10 +607,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -621,7 +621,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -629,10 +629,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -640,10 +640,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -651,10 +651,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -662,10 +662,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/strings/zoneData.xlsx
+++ b/data/strings/zoneData.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="zoneData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -128,21 +128,12 @@
     <t>Throughout your journey you will learn what Medialogy is all about, which will help you claim the ultimate reward: A job!_Good luck, and safe travels!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Shapes, sprites and polygons. The world of computer graphics will always be closely related to programming. To make your ideas work in real life, </t>
-  </si>
-  <si>
-    <t>you will work with the tools necessary to make 2D and 3D graphics._At AAU, you will begin on computer graphics along with the programming, starting on day one.</t>
-  </si>
-  <si>
     <t>AAU is a land of wonders and technology: 3D printers, electrical labs, workshops with wood and metal. All is possible!</t>
   </si>
   <si>
     <t xml:space="preserve"> The digital world is a wonderful world, but at some point you will need to work with real life as well. Physical design helps you taking your project from a sketch to the real world.</t>
   </si>
   <si>
-    <t>AAU will teach you about 2D and 3D animation, and by the end of your journey, you will know how to animate.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Greetings young one, and welcome to Medialogy. To begin your quest, place your finger on top of your avatar and drag yourself through the path of Medialogy.</t>
   </si>
   <si>
@@ -150,6 +141,15 @@
   </si>
   <si>
     <t>At AAU, you will be taught the best methods for sketching your ideas, which will show you how brilliant your ideas truly are!</t>
+  </si>
+  <si>
+    <t>_AAU will teach you about 2D and 3D animation, and by the end of your journey, you will know how to animate.</t>
+  </si>
+  <si>
+    <t>_At AAU, you will begin on computer graphics along with the programming, starting on day one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shapes, sprites and polygons. The world of computer graphics will always be closely related to programming. To make your ideas work in real life, you will work with the tools necessary to make 2D and 3D graphics.</t>
   </si>
 </sst>
 </file>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,7 +530,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -544,7 +544,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -563,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -574,10 +574,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -596,10 +596,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">

--- a/data/strings/zoneData.xlsx
+++ b/data/strings/zoneData.xlsx
@@ -134,9 +134,6 @@
     <t xml:space="preserve"> The digital world is a wonderful world, but at some point you will need to work with real life as well. Physical design helps you taking your project from a sketch to the real world.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Greetings young one, and welcome to Medialogy. To begin your quest, place your finger on top of your avatar and drag yourself through the path of Medialogy.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Once you understand the digital and the physical world, it’s time to make the real magic: Animation._You dont need to be Disney or Pixar to make things move, and already on first semester you will be animating.</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Shapes, sprites and polygons. The world of computer graphics will always be closely related to programming. To make your ideas work in real life, you will work with the tools necessary to make 2D and 3D graphics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greetings young one, and welcome to Medialogy,  a bachelor and masters degree at Aalborg University _To begin your quest, place your finger on top of your avatar and drag yourself through the path of Medialogy.</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,7 +530,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -544,7 +544,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -563,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -596,10 +596,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">

--- a/data/strings/zoneData.xlsx
+++ b/data/strings/zoneData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LWT\Desktop\P0mapgame\data\strings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus Jagd\Google Drive\Medialogy\GitHub\P0mapgame\data\strings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,94 +68,94 @@
     <t>Art &amp; Design</t>
   </si>
   <si>
-    <t xml:space="preserve"> You have completed the education of Medialogy! _Now take a moment to browse the wide variety of jobs that are now open to you!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> We start at the beginning, young one. When you begin with Medialogy, you will have many ideas. But all ideas require a sketch.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Young one, sketching will only get you so far. If you want to make the very best things, you must learn how to code.</t>
-  </si>
-  <si>
     <t>Text String 1</t>
   </si>
   <si>
     <t>Text String 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Medialogy is nothing without the user, young one. And the user is a strange person. If you haven’t made your idea easy to use, they will just go play Farmville.</t>
-  </si>
-  <si>
-    <t>With interaction design, you will learn how users think and how to help them enjoy your idea.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pacman said wakka-wakka._ Gordon Freeman said nothing._ Sound design is about learning what audio works best for your particular project.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Your work with animation and graphics will open some possibilities within the world of moving images. </t>
-  </si>
-  <si>
-    <t>Areas like motion capture and special effects exist with a bit more studying and practice.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Medialogy gives you a lot of the skills needed to make a game: Programming, design, project management, quality assurance and more. </t>
   </si>
   <si>
-    <t>Plenty of Medialogy bachelors have made indie games before, and some have found their way into major companies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Medialogy is a field in constant change. What's true today, might be wrong tomorrow. </t>
-  </si>
-  <si>
-    <t>That's why a lot of Ph.D.’s and professors do research in the field, and if you want career in academia, it's possible.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You will spend time studying how and why some things work great, and why other work terribly. If you combine that with programming, you can create computer art. </t>
-  </si>
-  <si>
-    <t>If you combine it with management, you can become a well-paid consultant. If you combine it with research, you could design the next big IT-system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t>You are almost done with Medialogy. Keep going!</t>
-  </si>
-  <si>
-    <t>Luckily AAU requires no prior experience, and over three years, you will be lifted from a novice to a master. It’s hard work, but it’s also fun!</t>
-  </si>
-  <si>
-    <t>Throughout your journey you will learn what Medialogy is all about, which will help you claim the ultimate reward: A job!_Good luck, and safe travels!</t>
-  </si>
-  <si>
-    <t>AAU is a land of wonders and technology: 3D printers, electrical labs, workshops with wood and metal. All is possible!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The digital world is a wonderful world, but at some point you will need to work with real life as well. Physical design helps you taking your project from a sketch to the real world.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Once you understand the digital and the physical world, it’s time to make the real magic: Animation._You dont need to be Disney or Pixar to make things move, and already on first semester you will be animating.</t>
-  </si>
-  <si>
-    <t>At AAU, you will be taught the best methods for sketching your ideas, which will show you how brilliant your ideas truly are!</t>
-  </si>
-  <si>
-    <t>_AAU will teach you about 2D and 3D animation, and by the end of your journey, you will know how to animate.</t>
-  </si>
-  <si>
-    <t>_At AAU, you will begin on computer graphics along with the programming, starting on day one.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Shapes, sprites and polygons. The world of computer graphics will always be closely related to programming. To make your ideas work in real life, you will work with the tools necessary to make 2D and 3D graphics.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Greetings young one, and welcome to Medialogy,  a bachelor and masters degree at Aalborg University _To begin your quest, place your finger on top of your avatar and drag yourself through the path of Medialogy.</t>
+    <t xml:space="preserve"> At AAU, you will be taught the best methods for sketching your ideas, which will help you show other people how brilliant your ideas truly are!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greetings young one, and welcome to Medialogy,  a bachelor and masters degree at Aalborg University Copenhagen. To begin your quest, place your finger on top of your avatar and drag yourself through the path of Medialogy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We start at the beginning, young one. When you begin at Medialogy, your head will be filled with ideas. But to translate these ideas into the real world you must be able to visualize them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Young one, sketching will only get you so far. If you truly wish to realise your ideas, you must learn how to write code. Luckily AAU requires no prior experience, and over the course of three years, you will be lifted from a novice to a master.</t>
+  </si>
+  <si>
+    <t>_ It is challenging and hard work, but also a lot of fun!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AAU is a land of wonders and technology: 3D printers, electrical labs, workshops with wood and metal. All is possible!</t>
+  </si>
+  <si>
+    <t>_ At AAU, you will begin on computer graphics along with the programming, starting on day one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You are almost done with Medialogy. Keep going!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In Medialogy you must always take the user into consideration, young one. And the user is a strange person. If you haven’t made your product easy to use, they will just go play Farmville instead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> With interaction design, you will learn how users think and how to help them enjoy your product.</t>
+  </si>
+  <si>
+    <t>_ AAU will teach you about both 2D and 3D animation, and by the end of your journey, you will be a master of animation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pacman said wakka-wakka. Gordon Freeman said nothing. Sound design is about learning what audio works best for your particular project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You will spend time studying how and why some things work great, and why others work terribly. If you combine that with programming, you can create computer art. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you combine it with management, you can become a well-paid consultant. If you combine it with research, you could design the next big IT-system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Once you understand the digital and the physical world, it’s time to do some real magic: Animation._ You dont need to be Disney or Pixar to make things move, and already on first semester you will be animating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Areas like motion capture and special effects are avaliabe, with a bit more studying and practice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your work with animation and graphics will open doors in the world of moving images. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plenty of Medialogy bachelors have made indie games before, and some have found their way into major game companies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That's why a lot of Ph.D.’s and professors do research in the field, so if you want a career in academia, it's available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medialogy is a field in constant change. What's true today, might not be tomorrow. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Throughout your journey you will learn what Medialogy is all about, and in the end claim the ultimate reward: A job!__Good luck, and safe travels!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The digital world is a wonderful place, but at some point you will need to get your hands dity, young one. Physical design will help you transfer your project from a sketch into the real world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You have completed the education of Medialogy! _Now take a moment to browse the wide variety of jobs that are now availabe to you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You can also take a look at the skills that you've earned, in the Skill Book, in the upper right corner.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,169 +503,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7265625" customWidth="1"/>
-    <col min="2" max="2" width="205.7265625" customWidth="1"/>
-    <col min="3" max="3" width="122" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="211.5703125" customWidth="1"/>
+    <col min="3" max="3" width="137.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
